--- a/experiment-results/优化器测试.xlsx
+++ b/experiment-results/优化器测试.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-projects\ljf-git\image-classification\实验结果对比\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-projects\ljf-git\image-classification\experiment-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9A9036-5B2A-48B2-9EF6-980D854EC0DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476106C0-B86C-47C5-97D2-27706610EA04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{B7A02859-25AE-44D2-9D10-DEB35FCD6B7D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>优化器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,15 +71,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 轻微划伤和轻微脏污</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> SGD: weight_decay 1e-4 momentum 0.9 nesterov True lr=0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adam weight_decay=1e-4 beta=(0.9, 0.999) eps=1e-8 lr=0.1</t>
+    <t xml:space="preserve"> ResNet18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> GcNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻微划伤和轻微脏污</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> batch size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SGD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> weight_decay 1e-4 momentum 0.9 nesterov True lr=0.25 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 相关参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> weight_decay=1e-4 beta=(0.9, 0.999) eps=1e-8 lr=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">weight_decay 1e-4 momentum 0.9 _alpha 0.99 lr 0.01 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> weight_decay 1e-4 momentum 0.9 nesterov True lr 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA6C038-CD1D-48FF-9482-5F7A0D943E7E}">
-  <dimension ref="A2:P5"/>
+  <dimension ref="A2:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -465,15 +512,16 @@
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
-    <col min="13" max="13" width="10.25" customWidth="1"/>
+    <col min="5" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="11" width="15.25" customWidth="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
+    <col min="16" max="16" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -491,123 +539,215 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="P4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.76300000000000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.873</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>7</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.92800000000000005</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>0.79300000000000004</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>7</v>
       </c>
-      <c r="N5">
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="O5" s="2">
+        <v>7</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="2">
         <v>6.96</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2">
+        <v>64</v>
+      </c>
+      <c r="U5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B6">
+        <v>0.99</v>
+      </c>
+      <c r="C6">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E6">
+        <v>2.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6">
+        <v>11.18</v>
+      </c>
+      <c r="S6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="O2:O4"/>
+  <mergeCells count="8">
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="R2:R4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="Q2:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/experiment-results/优化器测试.xlsx
+++ b/experiment-results/优化器测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-projects\ljf-git\image-classification\experiment-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476106C0-B86C-47C5-97D2-27706610EA04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044BAEE7-4EF6-447B-8800-5FCEF7627702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{B7A02859-25AE-44D2-9D10-DEB35FCD6B7D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>优化器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,18 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> GcNet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Senet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轻微划伤和轻微脏污</t>
   </si>
   <si>
@@ -126,7 +114,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> weight_decay 1e-4 momentum 0.9 nesterov True lr 0.5</t>
+    <t xml:space="preserve"> weight decay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加epochs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senet20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> GcNet20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPN22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5..5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> weight_decay 1e-4 momentum 0.9 nesterov True lr=0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> weight_decay 1e-4 momentum 0.9 nesterov True lr=0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_decay=1e-4 beta=(0.9, 0.999) eps=1e-8 lr=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">weight_decay 1e-4 momentum 0.9 _alpha 0.99 lr 0.01 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7h 46m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +175,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -173,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,6 +220,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA6C038-CD1D-48FF-9482-5F7A0D943E7E}">
-  <dimension ref="A2:U10"/>
+  <dimension ref="A2:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,65 +562,65 @@
     <col min="16" max="16" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
-        <v>16</v>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -593,7 +634,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>2</v>
@@ -608,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>2</v>
@@ -623,13 +664,13 @@
         <v>8</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -646,7 +687,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2">
         <v>0.92800000000000005</v>
@@ -661,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2">
         <v>0.88900000000000001</v>
@@ -676,7 +717,7 @@
         <v>7</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="2">
         <v>6.96</v>
@@ -686,53 +727,161 @@
         <v>64</v>
       </c>
       <c r="U5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>0.99</v>
       </c>
-      <c r="C6">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="D6">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="3">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J6" s="5">
         <v>2.5</v>
       </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6">
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="O6" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="3">
         <v>11.18</v>
       </c>
       <c r="S6">
         <v>128</v>
       </c>
+      <c r="U6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B7" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.871</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="O7" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.878</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3">
+        <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/experiment-results/优化器测试.xlsx
+++ b/experiment-results/优化器测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-projects\ljf-git\image-classification\experiment-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044BAEE7-4EF6-447B-8800-5FCEF7627702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DC0BE8-EEE3-4627-928C-558694A4F771}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{B7A02859-25AE-44D2-9D10-DEB35FCD6B7D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>优化器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,27 +134,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5..5</t>
+    <t xml:space="preserve"> weight_decay 1e-4 momentum 0.9 nesterov True lr=0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> weight_decay 1e-4 momentum 0.9 nesterov True lr=0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_decay=1e-4 beta=(0.9, 0.999) eps=1e-8 lr=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">weight_decay 1e-4 momentum 0.9 _alpha 0.99 lr 0.01 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7h 46m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_decay=1e-4 beta=(0.9, 0.999) eps=1e-8 lr=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_decay 1e-4 momentum 0.9 _alpha 0.99 lr 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5h</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> weight_decay 1e-4 momentum 0.9 nesterov True lr=0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> weight_decay 1e-4 momentum 0.9 nesterov True lr=0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight_decay=1e-4 beta=(0.9, 0.999) eps=1e-8 lr=0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">weight_decay 1e-4 momentum 0.9 _alpha 0.99 lr 0.01 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7h 46m</t>
+    <t>5.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,10 +238,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA6C038-CD1D-48FF-9482-5F7A0D943E7E}">
   <dimension ref="A2:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -563,64 +582,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4" t="s">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -666,9 +688,10 @@
       <c r="P4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -723,7 +746,7 @@
         <v>6.96</v>
       </c>
       <c r="R5" s="2"/>
-      <c r="S5" s="2">
+      <c r="S5" s="5">
         <v>64</v>
       </c>
       <c r="U5" t="s">
@@ -741,44 +764,46 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>2.5</v>
+      </c>
       <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="L6" s="4">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="O6" s="4">
         <v>2.5</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="O6" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="Q6" s="3">
         <v>11.18</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="5">
         <v>128</v>
       </c>
       <c r="U6" t="s">
@@ -792,35 +817,35 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.98299999999999998</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.871</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="J7" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="L7" s="3">
         <v>0.92400000000000004</v>
@@ -835,10 +860,13 @@
         <v>5.5</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="3">
         <v>0.28000000000000003</v>
+      </c>
+      <c r="S7" s="5">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -855,29 +883,47 @@
         <v>0.878</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="O8" s="3">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="Q8" s="3">
         <v>0.28000000000000003</v>
+      </c>
+      <c r="S8" s="5">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="S9" s="5">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -885,7 +931,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="A2:A4"/>

--- a/experiment-results/优化器测试.xlsx
+++ b/experiment-results/优化器测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-projects\ljf-git\image-classification\experiment-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DC0BE8-EEE3-4627-928C-558694A4F771}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED2123-4504-4FE5-832C-033F66AD7DEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{B7A02859-25AE-44D2-9D10-DEB35FCD6B7D}"/>
   </bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA6C038-CD1D-48FF-9482-5F7A0D943E7E}">
   <dimension ref="A2:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/experiment-results/优化器测试.xlsx
+++ b/experiment-results/优化器测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-projects\ljf-git\image-classification\experiment-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED2123-4504-4FE5-832C-033F66AD7DEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71597535-EDA9-4D41-818E-2ED751E1DE64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{B7A02859-25AE-44D2-9D10-DEB35FCD6B7D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>优化器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,14 @@
   </si>
   <si>
     <t>测试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7h 12m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_decay 1e-4 momentum 0.9 nesterov True lr=0.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,12 +232,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,7 +568,7 @@
   <dimension ref="A2:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -582,67 +587,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6" t="s">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -688,65 +693,65 @@
       <c r="P4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>0.76300000000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>0.873</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>0.92800000000000005</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>0.79300000000000004</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>0.85199999999999998</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>7</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>0.88900000000000001</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>0.77600000000000002</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>0.83499999999999996</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="4">
         <v>7</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="4">
         <v>6.96</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="5">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4">
         <v>64</v>
       </c>
       <c r="U5" t="s">
@@ -757,53 +762,54 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>0.99</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>0.78900000000000003</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>2.5</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.93300000000000005</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.78900000000000003</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.85899999999999999</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>2.5</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>0.86099999999999999</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>0.67600000000000005</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>0.42399999999999999</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>2.5</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="4">
         <v>11.18</v>
       </c>
-      <c r="S6" s="5">
+      <c r="R6" s="4"/>
+      <c r="S6" s="4">
         <v>128</v>
       </c>
       <c r="U6" t="s">
@@ -817,55 +823,56 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.98299999999999998</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.871</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.90800000000000003</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.96099999999999997</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.86199999999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.89700000000000002</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="4">
         <v>0.92400000000000004</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="4">
         <v>0.79400000000000004</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="4">
         <v>0.86899999999999999</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="4">
         <v>5.5</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S7" s="5">
+      <c r="R7" s="4"/>
+      <c r="S7" s="4">
         <v>128</v>
       </c>
     </row>
@@ -873,47 +880,48 @@
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>0.95299999999999996</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>0.81499999999999995</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0.878</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4">
         <v>0.86599999999999999</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="4">
         <v>0.71</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="4">
         <v>0.77900000000000003</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="4">
         <v>8</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S8" s="5">
+      <c r="R8" s="4"/>
+      <c r="S8" s="4">
         <v>64</v>
       </c>
     </row>
@@ -921,7 +929,34 @@
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="5">
+      <c r="B9" s="4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4">
         <v>64</v>
       </c>
     </row>

--- a/experiment-results/优化器测试.xlsx
+++ b/experiment-results/优化器测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-projects\ljf-git\image-classification\experiment-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71597535-EDA9-4D41-818E-2ED751E1DE64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED32C9D-2416-4D76-B17E-04A94A93B2AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{B7A02859-25AE-44D2-9D10-DEB35FCD6B7D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>优化器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>weight_decay 1e-4 momentum 0.9 nesterov True lr=0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -567,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA6C038-CD1D-48FF-9482-5F7A0D943E7E}">
   <dimension ref="A2:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,67 +594,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5" t="s">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -693,10 +700,10 @@
       <c r="P4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -895,10 +902,18 @@
       <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="G8" s="4">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="K8" s="4" t="s">
         <v>31</v>
       </c>
@@ -923,6 +938,9 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4">
         <v>64</v>
+      </c>
+      <c r="T8" s="5">
+        <v>29.94</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">

--- a/experiment-results/优化器测试.xlsx
+++ b/experiment-results/优化器测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-projects\ljf-git\image-classification\experiment-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED32C9D-2416-4D76-B17E-04A94A93B2AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E2208F-BCA2-4D3B-86E5-C8088F58B74B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{B7A02859-25AE-44D2-9D10-DEB35FCD6B7D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>优化器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>7h 46m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight_decay=1e-4 beta=(0.9, 0.999) eps=1e-8 lr=0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,6 +179,14 @@
   </si>
   <si>
     <t>8h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_decay=1e-4 beta=(0.9, 0.999) eps=1e-8 lr=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7h 9m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA6C038-CD1D-48FF-9482-5F7A0D943E7E}">
   <dimension ref="A2:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,7 +654,7 @@
         <v>13</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -840,7 +844,7 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>27</v>
@@ -855,7 +859,7 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>28</v>
@@ -912,10 +916,10 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L8" s="4">
         <v>0.86599999999999999</v>
@@ -930,7 +934,7 @@
         <v>8</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="4">
         <v>0.28000000000000003</v>
@@ -957,16 +961,26 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="G9" s="4">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>

--- a/experiment-results/优化器测试.xlsx
+++ b/experiment-results/优化器测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-projects\ljf-git\image-classification\experiment-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E2208F-BCA2-4D3B-86E5-C8088F58B74B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3EADD-D74A-48E0-8A2A-F1168A4089AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{B7A02859-25AE-44D2-9D10-DEB35FCD6B7D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>优化器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,22 @@
   </si>
   <si>
     <t>7h 9m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7h10m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_decay 1e-4 momentum 0.9 _alpha 0.99 lr 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h 53m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_decay 1e-4 momentum 0.9 nesterov True lr=0.005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +268,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,7 +598,7 @@
   <dimension ref="A2:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,67 +617,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6" t="s">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -704,10 +723,10 @@
       <c r="P4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -981,20 +1000,59 @@
       <c r="K9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="L9" s="4">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.747</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4">
         <v>64</v>
+      </c>
+      <c r="T9">
+        <v>46.37</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>10.79</v>
+      </c>
+      <c r="S10" s="6">
+        <v>128</v>
+      </c>
+      <c r="T10">
+        <v>18.14</v>
       </c>
     </row>
   </sheetData>

--- a/experiment-results/优化器测试.xlsx
+++ b/experiment-results/优化器测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-projects\ljf-git\image-classification\experiment-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3EADD-D74A-48E0-8A2A-F1168A4089AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA60B2CC-8C3C-4174-9519-1A650E04D89C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{B7A02859-25AE-44D2-9D10-DEB35FCD6B7D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7A02859-25AE-44D2-9D10-DEB35FCD6B7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>优化器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weight_decay=1e-4 beta=(0.9, 0.999) eps=1e-8 lr=0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7h 9m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,11 +194,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3h 53m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weight_decay 1e-4 momentum 0.9 nesterov True lr=0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_decay=1e-4 beta=(0.9, 0.999) eps=1e-8 lr=0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h 54m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +272,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,86 +605,86 @@
   <dimension ref="A2:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="11" width="15.25" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-    <col min="16" max="16" width="15.125" customWidth="1"/>
+    <col min="10" max="11" width="15.21875" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7" t="s">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -723,12 +730,12 @@
       <c r="P4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -788,7 +795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -849,7 +856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -906,7 +913,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -966,7 +973,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -995,10 +1002,10 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L9" s="4">
         <v>0.90400000000000003</v>
@@ -1010,10 +1017,10 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="Q9" s="4">
         <v>0.28000000000000003</v>
@@ -1026,7 +1033,7 @@
         <v>46.37</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1040,9 +1047,24 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q10" s="6">

--- a/experiment-results/优化器测试.xlsx
+++ b/experiment-results/优化器测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-projects\ljf-git\image-classification\experiment-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA60B2CC-8C3C-4174-9519-1A650E04D89C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D328E4-BE3C-4F37-963F-50E2C98A5CA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7A02859-25AE-44D2-9D10-DEB35FCD6B7D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>优化器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,14 @@
   </si>
   <si>
     <t>4h 54m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_decay=1e-4 beta=(0.9, 0.999) eps=1e-8 lr=0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h 53m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,6 +280,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,7 +616,7 @@
   <dimension ref="A2:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -624,67 +635,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -730,10 +741,10 @@
       <c r="P4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -805,7 +816,9 @@
       <c r="C6" s="4">
         <v>0.78900000000000003</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>0.83</v>
+      </c>
       <c r="E6" s="4">
         <v>2.5</v>
       </c>
@@ -1067,6 +1080,21 @@
       <c r="K10" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="L10" s="8">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="Q10" s="6">
         <v>10.79</v>
       </c>
@@ -1074,7 +1102,7 @@
         <v>128</v>
       </c>
       <c r="T10">
-        <v>18.14</v>
+        <v>34.71</v>
       </c>
     </row>
   </sheetData>
